--- a/biology/Zoologie/Cadra/Cadra.xlsx
+++ b/biology/Zoologie/Cadra/Cadra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cadra est un genre de  lépidoptères (papillons) de la famille des Pyralidae.
 On peut reconnaître les espèces du genre Cadra à la nervation réduite de leurs ailes antérieures : les nervures 4, 7 et 9 sont manquantes, sur un total de 9 nervures des ailes antérieures.
-Certaines espèces de ce genre sont des ravageurs notables de produits végétaux secs, tels que les graines de céréales et de légumineuses et les fruits secs. Un exemple bien connu est la pyrale des amandes, Cadra cautella[1].
+Certaines espèces de ce genre sont des ravageurs notables de produits végétaux secs, tels que les graines de céréales et de légumineuses et les fruits secs. Un exemple bien connu est la pyrale des amandes, Cadra cautella.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (6 août 2014)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (6 août 2014) :
 Cadra abstersella
 Cadra acuta
 Cadra afflatella
@@ -529,7 +543,7 @@
 Cadra perfasciata
 Cadra reniformis
 Cadra rugosa
-Selon NCBI  (6 août 2014)[3] :
+Selon NCBI  (6 août 2014) :
 Cadra cautella
 Cadra figulilella
 Cadra perfasciata
